--- a/EvenementsEnDirect/docs/analyse/Planification TPI Davila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Planification TPI Davila 2020.xlsx
@@ -181,7 +181,7 @@
     <t>Documentation technique</t>
   </si>
   <si>
-    <t>Document d'analyse</t>
+    <t>Analyse</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -205,16 +205,12 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -224,16 +220,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -311,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -321,7 +313,7 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -330,10 +322,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -342,7 +334,7 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -352,135 +344,120 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -777,42 +754,42 @@
       <c r="B3" s="6">
         <v>0.0625</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>0.0625</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="11">
         <f t="shared" si="1"/>
         <v>0.0625</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="16">
         <v>0.0625</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>0.0625</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="11">
         <f t="shared" si="1"/>
         <v>0.0625</v>
@@ -822,21 +799,21 @@
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>0.0625</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20">
+      <c r="C5" s="17"/>
+      <c r="D5" s="13">
         <v>0.0625</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="11">
         <f t="shared" si="1"/>
         <v>0.0625</v>
@@ -846,21 +823,21 @@
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>0.25</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <v>0.25</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="11">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -873,18 +850,18 @@
       <c r="B7" s="16">
         <v>0.020833333333333332</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20">
+      <c r="C7" s="17"/>
+      <c r="D7" s="13">
         <v>0.020833333333333332</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="11">
         <f t="shared" si="1"/>
         <v>0.02083333333</v>
@@ -893,60 +870,60 @@
     <row r="8">
       <c r="A8" s="5"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20">
+      <c r="B9" s="16">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="13">
         <v>0.08333333333333333</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -959,18 +936,18 @@
       <c r="B11" s="16">
         <v>0.020833333333333332</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
+      <c r="C11" s="17"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23">
         <v>0.020833333333333332</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="11">
         <f t="shared" si="1"/>
         <v>0.02083333333</v>
@@ -984,17 +961,17 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7">
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="25">
         <v>0.020833333333333332</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="11">
         <f t="shared" si="1"/>
         <v>0.02083333333</v>
@@ -1008,17 +985,17 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="7">
+      <c r="D13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
@@ -1032,17 +1009,17 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="29">
         <v>0.041666666666666664</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
@@ -1056,41 +1033,41 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="17">
+      <c r="D15" s="14"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="31">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
@@ -1104,17 +1081,17 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="7">
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
@@ -1128,55 +1105,55 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="26">
+      <c r="D18" s="14"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29">
         <v>0.041666666666666664</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="14"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="14"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="25"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="14"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1190,17 +1167,17 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1214,17 +1191,17 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7">
+      <c r="D22" s="14"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="7">
         <v>0.020833333333333332</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="37"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="11">
         <f t="shared" si="1"/>
         <v>0.02083333333</v>
@@ -1238,17 +1215,17 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="20">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="23">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="37"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1258,91 +1235,91 @@
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="24">
         <v>0.125</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="29">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="F24" s="26">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="G24" s="7">
         <v>0.041666666666666664</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="11">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="37"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="24">
         <v>0.08333333333333333</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="7">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H26" s="13"/>
+      <c r="F26" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="13"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="34">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="7">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="37"/>
+      <c r="B27" s="24">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
       <c r="M27" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1352,43 +1329,43 @@
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="18">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="B28" s="16">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="G28" s="41">
         <v>0.041666666666666664</v>
       </c>
-      <c r="H28" s="42">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="43"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="43"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1398,173 +1375,173 @@
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="18">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="7">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="B30" s="16">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="43"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
       </c>
     </row>
     <row r="31" ht="18.0" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="37"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="18">
         <v>0.08333333333333333</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="7">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="G32" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="46"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="27">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="B34" s="31">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="37"/>
       <c r="M34" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="31">
         <v>0.125</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="49">
+      <c r="C35" s="35"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="46">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I35" s="30">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="H35" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="11">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="19"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="37"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="39"/>
       <c r="M37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1574,67 +1551,67 @@
       <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="18">
         <v>0.10416666666666667</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="17">
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="13">
         <v>0.0625</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="37"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="39"/>
       <c r="M38" s="11">
         <f t="shared" si="1"/>
         <v>0.1041666667</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="17">
+      <c r="C39" s="9"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="37"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="39"/>
       <c r="M39" s="11">
         <f t="shared" si="1"/>
         <v>0.1041666667</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="44"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="37"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="39"/>
       <c r="M40" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1644,21 +1621,21 @@
       <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="18">
         <v>0.08333333333333333</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="19"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="17">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="37"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="39"/>
       <c r="M41" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1668,53 +1645,53 @@
       <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="18">
         <v>0.20833333333333334</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="19"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="17">
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="19">
         <v>0.20833333333333334</v>
       </c>
-      <c r="L42" s="51"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="11">
         <f t="shared" si="1"/>
         <v>0.2083333333</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="44"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="19"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="37"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="39"/>
       <c r="M43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="18">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="40"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="7">
         <v>0.020833333333333332</v>
       </c>
@@ -1727,13 +1704,13 @@
       <c r="I44" s="7">
         <v>0.020833333333333332</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="26">
         <v>0.041666666666666664</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="26">
         <v>0.041666666666666664</v>
       </c>
       <c r="M44" s="11">
@@ -1742,24 +1719,24 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="18">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="17">
+      <c r="C45" s="9"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="13">
         <v>0.0625</v>
       </c>
-      <c r="L45" s="53">
+      <c r="L45" s="49">
         <v>0.14583333333333334</v>
       </c>
       <c r="M45" s="11">
@@ -1768,22 +1745,22 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="21">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="51">
+      <c r="B46" s="18">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="48">
         <v>0.08333333333333333</v>
       </c>
       <c r="M46" s="11">
@@ -1792,18 +1769,18 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="37"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="39"/>
       <c r="M47" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1811,71 +1788,71 @@
     </row>
     <row r="48" hidden="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="44"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="19"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="37"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="39"/>
       <c r="M48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="44"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="19"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="37"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="39"/>
       <c r="M49" s="11"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="18">
         <v>0.75</v>
       </c>
       <c r="C50" s="7">
         <v>0.020833333333333332</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="13">
         <v>0.0625</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="28">
         <v>0.0625</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="13">
         <v>0.0625</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="13">
         <v>0.0625</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="13">
         <v>0.0625</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="K50" s="17">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="L50" s="53">
+      <c r="K50" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L50" s="49">
         <v>0.125</v>
       </c>
       <c r="M50" s="11">
@@ -1887,46 +1864,46 @@
       <c r="A51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="18">
         <v>0.125</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="17">
+      <c r="D51" s="19">
         <v>0.125</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="37"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="39"/>
       <c r="M51" s="11">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="54"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="56"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="57"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="11">
         <f t="shared" ref="B53:L53" si="4">SUM(B2:B52)</f>
         <v>3.666666667</v>
@@ -1941,19 +1918,19 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3541666667</v>
+        <v>0.3125</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3333333333</v>
+        <v>0.3541666667</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3541666667</v>
+        <v>0.3333333333</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3333333333</v>
+        <v>0.375</v>
       </c>
       <c r="I53" s="11">
         <f t="shared" si="4"/>
@@ -1971,20 +1948,20 @@
         <f t="shared" si="4"/>
         <v>0.3958333333</v>
       </c>
-      <c r="M53" s="57"/>
+      <c r="M53" s="52"/>
     </row>
     <row r="54">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
       <c r="L54" s="11">
         <f>SUM(C53:L53)</f>
         <v>3.666666667</v>

--- a/EvenementsEnDirect/docs/analyse/Planification TPI Davila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Planification TPI Davila 2020.xlsx
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -373,6 +373,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -389,9 +392,6 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -415,21 +415,27 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -442,14 +448,14 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -778,10 +784,10 @@
       <c r="B4" s="16">
         <v>0.0625</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
         <v>0.0625</v>
       </c>
-      <c r="D4" s="14"/>
       <c r="E4" s="9"/>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
@@ -803,10 +809,10 @@
         <v>0.0625</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="13">
+      <c r="D5" s="13"/>
+      <c r="E5" s="7">
         <v>0.0625</v>
       </c>
-      <c r="E5" s="9"/>
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
       <c r="H5" s="14"/>
@@ -827,9 +833,11 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.0625</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="14"/>
       <c r="G6" s="9"/>
@@ -851,10 +859,10 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="13">
+      <c r="D7" s="13"/>
+      <c r="E7" s="7">
         <v>0.020833333333333332</v>
       </c>
-      <c r="E7" s="9"/>
       <c r="F7" s="14"/>
       <c r="G7" s="9"/>
       <c r="H7" s="14"/>
@@ -940,11 +948,11 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23">
+      <c r="G11" s="23">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="14"/>
       <c r="K11" s="8"/>
       <c r="L11" s="15"/>
@@ -957,18 +965,18 @@
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="25">
         <v>0.020833333333333332</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="25">
+      <c r="G12" s="23">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="14"/>
       <c r="K12" s="8"/>
       <c r="L12" s="15"/>
@@ -981,7 +989,7 @@
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="25">
         <v>0.041666666666666664</v>
       </c>
       <c r="C13" s="8"/>
@@ -989,10 +997,10 @@
       <c r="E13" s="7"/>
       <c r="F13" s="14"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="26">
+      <c r="H13" s="27">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="14"/>
       <c r="K13" s="8"/>
       <c r="L13" s="15"/>
@@ -1005,17 +1013,17 @@
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="25">
         <v>0.041666666666666664</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="29">
+      <c r="G14" s="23">
         <v>0.041666666666666664</v>
       </c>
+      <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="14"/>
       <c r="K14" s="8"/>
@@ -1029,7 +1037,7 @@
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="25">
         <v>0.041666666666666664</v>
       </c>
       <c r="C15" s="8"/>
@@ -1038,10 +1046,10 @@
       <c r="F15" s="14"/>
       <c r="G15" s="8"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="26">
+      <c r="I15" s="27"/>
+      <c r="J15" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J15" s="14"/>
       <c r="K15" s="8"/>
       <c r="L15" s="15"/>
       <c r="M15" s="11">
@@ -1062,12 +1070,12 @@
       <c r="F16" s="33"/>
       <c r="G16" s="35"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="26">
+      <c r="I16" s="27">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
@@ -1077,18 +1085,18 @@
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>0.041666666666666664</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="14"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26">
+      <c r="F17" s="28"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40">
         <v>0.041666666666666664</v>
       </c>
+      <c r="I17" s="27"/>
       <c r="J17" s="14"/>
       <c r="K17" s="8"/>
       <c r="L17" s="15"/>
@@ -1101,19 +1109,19 @@
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>0.041666666666666664</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J18" s="14"/>
       <c r="K18" s="8"/>
       <c r="L18" s="15"/>
       <c r="M18" s="11">
@@ -1123,13 +1131,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="8"/>
       <c r="D19" s="14"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="8"/>
       <c r="J19" s="14"/>
       <c r="K19" s="8"/>
@@ -1145,7 +1153,7 @@
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="9"/>
       <c r="F20" s="14"/>
       <c r="G20" s="9"/>
@@ -1167,8 +1175,8 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23">
+      <c r="D21" s="28"/>
+      <c r="E21" s="24">
         <v>0.08333333333333333</v>
       </c>
       <c r="F21" s="13"/>
@@ -1192,16 +1200,16 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="7">
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>0.020833333333333332</v>
       </c>
-      <c r="G22" s="7"/>
       <c r="H22" s="14"/>
       <c r="I22" s="17"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="11">
         <f t="shared" si="1"/>
         <v>0.02083333333</v>
@@ -1215,17 +1223,17 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23">
+      <c r="D23" s="28"/>
+      <c r="E23" s="24">
         <v>0.08333333333333333</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="17"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1235,23 +1243,23 @@
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="25">
         <v>0.125</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="29">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F24" s="26">
+      <c r="E24" s="19">
         <v>0.041666666666666664</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.08333333333333333</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="14"/>
       <c r="I24" s="9"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="11">
         <f t="shared" si="1"/>
         <v>0.125</v>
@@ -1261,7 +1269,7 @@
       <c r="A25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="9"/>
       <c r="D25" s="14"/>
       <c r="E25" s="9"/>
@@ -1271,7 +1279,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1281,7 +1289,7 @@
       <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="25">
         <v>0.08333333333333333</v>
       </c>
       <c r="C26" s="9"/>
@@ -1295,7 +1303,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
+      <c r="L26" s="41"/>
       <c r="M26" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1305,21 +1313,21 @@
       <c r="A27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <v>0.08333333333333333</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="14"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="29">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="14"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="7">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1333,19 +1341,17 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="G28" s="41">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="42"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1365,7 +1371,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="42"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1381,15 +1387,15 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="29">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="F30" s="20">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G30" s="29"/>
       <c r="H30" s="7"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="42"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1409,14 +1415,14 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
-      <c r="L31" s="39"/>
+      <c r="L31" s="41"/>
       <c r="M31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="45" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="18">
@@ -1426,14 +1432,14 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="29">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="7">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="44"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1443,7 +1449,7 @@
       <c r="A33" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="35"/>
@@ -1453,7 +1459,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="33"/>
       <c r="K33" s="35"/>
-      <c r="L33" s="37"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1471,13 +1477,13 @@
       <c r="E34" s="35"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="29">
+      <c r="H34" s="19">
         <v>0.08333333333333333</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="33"/>
       <c r="K34" s="35"/>
-      <c r="L34" s="37"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1494,24 +1500,22 @@
       <c r="D35" s="33"/>
       <c r="E35" s="35"/>
       <c r="F35" s="33"/>
-      <c r="G35" s="46">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="H35" s="29">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="I35" s="34"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="34">
+        <v>0.125</v>
+      </c>
       <c r="J35" s="33"/>
       <c r="K35" s="35"/>
-      <c r="L35" s="37"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="11">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="47"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="35"/>
       <c r="D36" s="33"/>
       <c r="E36" s="35"/>
@@ -1521,7 +1525,7 @@
       <c r="I36" s="35"/>
       <c r="J36" s="33"/>
       <c r="K36" s="35"/>
-      <c r="L36" s="37"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1541,7 +1545,7 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="39"/>
+      <c r="L37" s="41"/>
       <c r="M37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1559,15 +1563,13 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="13">
-        <v>0.0625</v>
-      </c>
-      <c r="J38" s="26">
-        <v>0.041666666666666664</v>
-      </c>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J38" s="27"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="39"/>
+      <c r="L38" s="41"/>
       <c r="M38" s="11">
         <f t="shared" si="1"/>
         <v>0.1041666667</v>
@@ -1585,13 +1587,13 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="13">
+      <c r="H39" s="20">
         <v>0.10416666666666667</v>
       </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="17"/>
-      <c r="L39" s="39"/>
+      <c r="L39" s="41"/>
       <c r="M39" s="11">
         <f t="shared" si="1"/>
         <v>0.1041666667</v>
@@ -1611,7 +1613,7 @@
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
-      <c r="L40" s="39"/>
+      <c r="L40" s="41"/>
       <c r="M40" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1635,7 +1637,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="K41" s="20"/>
-      <c r="L41" s="39"/>
+      <c r="L41" s="41"/>
       <c r="M41" s="11">
         <f t="shared" si="1"/>
         <v>0.08333333333</v>
@@ -1657,9 +1659,11 @@
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="19">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="L42" s="48"/>
+        <v>0.125</v>
+      </c>
+      <c r="L42" s="49">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="M42" s="11">
         <f t="shared" si="1"/>
         <v>0.2083333333</v>
@@ -1679,7 +1683,7 @@
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
-      <c r="L43" s="39"/>
+      <c r="L43" s="41"/>
       <c r="M43" s="11"/>
     </row>
     <row r="44">
@@ -1696,7 +1700,7 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="G44" s="7">
-        <v>0.020833333333333332</v>
+        <v>0.0625</v>
       </c>
       <c r="H44" s="7">
         <v>0.020833333333333332</v>
@@ -1704,15 +1708,13 @@
       <c r="I44" s="7">
         <v>0.020833333333333332</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="27">
         <v>0.041666666666666664</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="27">
         <v>0.041666666666666664</v>
       </c>
-      <c r="L44" s="26">
-        <v>0.041666666666666664</v>
-      </c>
+      <c r="L44" s="50"/>
       <c r="M44" s="11">
         <f t="shared" ref="M44:M47" si="2">SUM(C44:L44)</f>
         <v>0.2083333333</v>
@@ -1736,7 +1738,7 @@
       <c r="K45" s="13">
         <v>0.0625</v>
       </c>
-      <c r="L45" s="49">
+      <c r="L45" s="51">
         <v>0.14583333333333334</v>
       </c>
       <c r="M45" s="11">
@@ -1760,7 +1762,7 @@
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="48">
+      <c r="L46" s="49">
         <v>0.08333333333333333</v>
       </c>
       <c r="M46" s="11">
@@ -1780,7 +1782,7 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
-      <c r="L47" s="39"/>
+      <c r="L47" s="41"/>
       <c r="M47" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1798,7 +1800,7 @@
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="39"/>
+      <c r="L48" s="41"/>
       <c r="M48" s="11"/>
     </row>
     <row r="49">
@@ -1815,7 +1817,7 @@
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
-      <c r="L49" s="39"/>
+      <c r="L49" s="41"/>
       <c r="M49" s="11"/>
     </row>
     <row r="50">
@@ -1826,34 +1828,34 @@
         <v>0.75</v>
       </c>
       <c r="C50" s="7">
-        <v>0.020833333333333332</v>
+        <v>0.0625</v>
       </c>
       <c r="D50" s="13">
         <v>0.0625</v>
       </c>
-      <c r="E50" s="28">
-        <v>0.0625</v>
+      <c r="E50" s="23">
+        <v>0.10416666666666667</v>
       </c>
       <c r="F50" s="13">
         <v>0.0625</v>
       </c>
       <c r="G50" s="13">
-        <v>0.0625</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="H50" s="13">
-        <v>0.0625</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="I50" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="J50" s="13">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="K50" s="29">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="L50" s="49">
-        <v>0.125</v>
+      <c r="J50" s="23">
+        <v>0.0625</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L50" s="51">
+        <v>0.08333333333333333</v>
       </c>
       <c r="M50" s="11">
         <f t="shared" ref="M50:M52" si="3">SUM(C50:L50)</f>
@@ -1878,90 +1880,90 @@
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
-      <c r="L51" s="39"/>
+      <c r="L51" s="41"/>
       <c r="M51" s="11">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="50"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="40"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="43"/>
       <c r="M52" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="52"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="11">
         <f t="shared" ref="B53:L53" si="4">SUM(B2:B52)</f>
         <v>3.666666667</v>
       </c>
       <c r="C53" s="11">
         <f t="shared" si="4"/>
-        <v>0.4166666667</v>
+        <v>0.3333333333</v>
       </c>
       <c r="D53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3541666667</v>
+        <v>0.3958333333</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <v>0.3958333333</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3541666667</v>
+        <v>0.3333333333</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3333333333</v>
+        <v>0.3541666667</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="4"/>
-        <v>0.375</v>
+        <v>0.3958333333</v>
       </c>
       <c r="I53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3541666667</v>
+        <v>0.3958333333</v>
       </c>
       <c r="J53" s="11">
         <f t="shared" si="4"/>
-        <v>0.375</v>
+        <v>0.3541666667</v>
       </c>
       <c r="K53" s="11">
         <f t="shared" si="4"/>
-        <v>0.3958333333</v>
+        <v>0.3125</v>
       </c>
       <c r="L53" s="11">
         <f t="shared" si="4"/>
         <v>0.3958333333</v>
       </c>
-      <c r="M53" s="52"/>
+      <c r="M53" s="54"/>
     </row>
     <row r="54">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
       <c r="L54" s="11">
         <f>SUM(C53:L53)</f>
         <v>3.666666667</v>

--- a/EvenementsEnDirect/docs/analyse/Planification TPI Davila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Planification TPI Davila 2020.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Planification" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Planing effectif" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -182,6 +183,9 @@
   </si>
   <si>
     <t>Analyse</t>
+  </si>
+  <si>
+    <t>Affichage de tous les événements de l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -192,7 +196,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -226,6 +230,13 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -303,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -468,6 +479,45 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,6 +528,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -679,6 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1974,6 +2029,1316 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="68.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M42" si="1">SUM(C2:L2)</f>
+        <v>0.02083333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.0625</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.0625</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.0625</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
+        <v>0.0625</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="55">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="56">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="55">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="C6" s="57">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D6" s="58">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2916666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.02083333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="58">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="60">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.02083333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="60">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.02083333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="27">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="23">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="27">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="59">
+        <v>0.0625</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="61">
+        <v>0.0625</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.02083333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="24">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.08333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="62">
+        <v>0.0625</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="19">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="29">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.08333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="7">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="11">
+        <f t="shared" si="1"/>
+        <v>0.08333333333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="59">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="59">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="42">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="31" ht="18.0" customHeight="1">
+      <c r="A31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="55">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="56">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1041666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="64">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="11">
+        <f t="shared" si="1"/>
+        <v>0.08333333333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="65">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="64">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="11">
+        <f t="shared" si="1"/>
+        <v>0.08333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="48"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="55">
+        <v>0.125</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="58">
+        <v>0.125</v>
+      </c>
+      <c r="J38" s="27"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="11">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="18">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="20">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1041666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="55">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="57">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="11">
+        <f t="shared" si="1"/>
+        <v>0.04166666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="55">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="K42" s="57">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L42" s="66"/>
+      <c r="M42" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2708333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="18">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="56">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="G44" s="56">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="J44" s="27">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K44" s="27">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L44" s="50"/>
+      <c r="M44" s="11">
+        <f t="shared" ref="M44:M47" si="2">SUM(C44:L44)</f>
+        <v>0.2083333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="55">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="13">
+        <v>0.0625</v>
+      </c>
+      <c r="L45" s="67">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1666666667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="18">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="49">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="2"/>
+        <v>0.08333333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" hidden="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="55">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.0625</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0.0625</v>
+      </c>
+      <c r="E50" s="60">
+        <v>0.0625</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0.0625</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H50" s="60">
+        <v>0.0625</v>
+      </c>
+      <c r="I50" s="58">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0.0625</v>
+      </c>
+      <c r="K50" s="57">
+        <v>0.125</v>
+      </c>
+      <c r="L50" s="67">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="M50" s="11">
+        <f t="shared" ref="M50:M52" si="3">SUM(C50:L50)</f>
+        <v>0.8333333333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="11">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="52"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="54"/>
+      <c r="B53" s="11">
+        <f t="shared" ref="B53:L53" si="4">SUM(B2:B52)</f>
+        <v>3.541666667</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3541666667</v>
+      </c>
+      <c r="D53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3125</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.2916666667</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.2916666667</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="J53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3958333333</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3958333333</v>
+      </c>
+      <c r="M53" s="54"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="11">
+        <f>SUM(C53:L53)</f>
+        <v>3.541666667</v>
+      </c>
+      <c r="M54" s="11">
+        <f>SUM(M2:M52)</f>
+        <v>3.541666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>